--- a/data/trans_orig/P36BPD04_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD04_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15C67995-A9B3-4152-B91D-F272BF1EF3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E58BDB1B-A505-47DF-B2A5-756C621570A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{82F0CD18-4D75-4940-9869-2E47B49DB2E3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{756D673C-8450-4655-853A-AA633224B8DA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="230">
   <si>
-    <t>Población según el número de piezas de fruta que consume al día en 2023 (Tasa respuesta: 99,86%)</t>
+    <t>Población según el consumo de fruta en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>6,48%</t>
   </si>
   <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
   </si>
   <si>
     <t>5,54%</t>
   </si>
   <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
   </si>
   <si>
     <t>No diariamente, pero tres o más veces por semana</t>
@@ -104,28 +104,28 @@
     <t>17,01%</t>
   </si>
   <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
   </si>
   <si>
     <t>14,77%</t>
   </si>
   <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
   </si>
   <si>
     <t>15,74%</t>
   </si>
   <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
   </si>
   <si>
     <t>Diariamente aunque menos de tres veces al día</t>
@@ -134,28 +134,28 @@
     <t>42,05%</t>
   </si>
   <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
   </si>
   <si>
     <t>49,47%</t>
   </si>
   <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
   </si>
   <si>
     <t>46,24%</t>
   </si>
   <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
   </si>
   <si>
     <t>Tres o más al día</t>
@@ -164,28 +164,28 @@
     <t>34,46%</t>
   </si>
   <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
   </si>
   <si>
     <t>30,94%</t>
   </si>
   <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
   </si>
   <si>
     <t>32,48%</t>
   </si>
   <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,109 +197,109 @@
     <t>2,84%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
   </si>
   <si>
     <t>4,39%</t>
   </si>
   <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
   </si>
   <si>
     <t>3,64%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
   </si>
   <si>
     <t>15,82%</t>
   </si>
   <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
   </si>
   <si>
     <t>12,33%</t>
   </si>
   <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
   </si>
   <si>
     <t>14,01%</t>
   </si>
   <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
   </si>
   <si>
     <t>57,91%</t>
   </si>
   <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
   </si>
   <si>
     <t>61,65%</t>
   </si>
   <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
   </si>
   <si>
     <t>59,85%</t>
   </si>
   <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
   </si>
   <si>
     <t>23,42%</t>
   </si>
   <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
   </si>
   <si>
     <t>21,63%</t>
   </si>
   <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
   </si>
   <si>
     <t>22,5%</t>
   </si>
   <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -308,418 +308,418 @@
     <t>4,68%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
   </si>
   <si>
     <t>3,16%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
   </si>
   <si>
     <t>3,91%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
   </si>
   <si>
     <t>14,8%</t>
   </si>
   <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
   </si>
   <si>
     <t>12,68%</t>
   </si>
   <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
+    <t>10,93%</t>
   </si>
   <si>
     <t>13,73%</t>
   </si>
   <si>
-    <t>15,51%</t>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
   </si>
   <si>
     <t>62,7%</t>
   </si>
   <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
   </si>
   <si>
     <t>64,78%</t>
   </si>
   <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
   </si>
   <si>
     <t>63,75%</t>
   </si>
   <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
   </si>
   <si>
     <t>17,82%</t>
   </si>
   <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
   </si>
   <si>
     <t>19,38%</t>
   </si>
   <si>
-    <t>17,32%</t>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
   </si>
   <si>
     <t>21,59%</t>
   </si>
   <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
     <t>19,77%</t>
   </si>
   <si>
-    <t>18,48%</t>
+    <t>18,55%</t>
   </si>
   <si>
     <t>20,86%</t>
@@ -1137,7 +1137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772B44D8-3ABB-4F4A-8168-E9262AE1549C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9BB921-BA47-41CD-B1B7-1E02C67C7D92}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1847,7 +1847,7 @@
         <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M15" s="7">
         <v>333</v>
@@ -1856,10 +1856,10 @@
         <v>288075</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>105</v>
@@ -2295,7 +2295,7 @@
         <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>85</v>
@@ -2304,13 +2304,13 @@
         <v>67712</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>152</v>
@@ -2319,13 +2319,13 @@
         <v>141360</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,16 +2337,16 @@
         <v>194</v>
       </c>
       <c r="D25" s="7">
-        <v>197982</v>
+        <v>197983</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>276</v>
@@ -2355,13 +2355,13 @@
         <v>195986</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>24</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>470</v>
@@ -2370,13 +2370,13 @@
         <v>393968</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,16 +2388,16 @@
         <v>567</v>
       </c>
       <c r="D26" s="7">
-        <v>528443</v>
+        <v>528444</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>868</v>
@@ -2406,13 +2406,13 @@
         <v>638854</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>1435</v>
@@ -2421,13 +2421,13 @@
         <v>1167297</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,13 +2442,13 @@
         <v>165170</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H27" s="7">
         <v>331</v>
@@ -2457,13 +2457,13 @@
         <v>246655</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M27" s="7">
         <v>508</v>
@@ -2472,13 +2472,13 @@
         <v>411825</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,7 +2490,7 @@
         <v>1005</v>
       </c>
       <c r="D28" s="7">
-        <v>965243</v>
+        <v>965244</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>50</v>
@@ -2546,13 +2546,13 @@
         <v>203091</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>246</v>
@@ -2561,13 +2561,13 @@
         <v>302285</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>420</v>
@@ -2579,10 +2579,10 @@
         <v>200</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>202</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,13 +2597,13 @@
         <v>601762</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>205</v>
+        <v>128</v>
       </c>
       <c r="H30" s="7">
         <v>788</v>
@@ -2648,13 +2648,13 @@
         <v>1924589</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H31" s="7">
         <v>3173</v>
@@ -2663,13 +2663,13 @@
         <v>2174604</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M31" s="7">
         <v>5106</v>
@@ -2678,13 +2678,13 @@
         <v>4099194</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P36BPD04_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD04_2023-Habitat-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el consumo de fruta en 2023</t>
+          <t>Población según la frecuencia de consumo de fruta o zumos naturales en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
